--- a/Documentação/Planilhas/Layouts/Gestao_VPC.xlsx
+++ b/Documentação/Planilhas/Layouts/Gestao_VPC.xlsx
@@ -4,20 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="stg_sige_contrato_vpc" sheetId="113" r:id="rId1"/>
-    <sheet name="stg_sige_nf_cancelada" sheetId="121" r:id="rId2"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId3"/>
-    <sheet name="stg_faturamento_margin" sheetId="122" r:id="rId4"/>
+    <sheet name="stg_movimento_estoque_vpc" sheetId="123" r:id="rId1"/>
+    <sheet name="ods_movimento_estoque_vpc" sheetId="124" r:id="rId2"/>
+    <sheet name="stg_sige_contrato_vpc" sheetId="113" r:id="rId3"/>
+    <sheet name="ods_sige_contrato_vpc" sheetId="125" r:id="rId4"/>
+    <sheet name="aux_ods_sige_contrato_vpc" sheetId="126" r:id="rId5"/>
+    <sheet name="stg_sige_nf_cancelada" sheetId="121" r:id="rId6"/>
+    <sheet name="stg_faturamento_margin" sheetId="122" r:id="rId7"/>
+    <sheet name="ods_estoque_vpc" sheetId="127" r:id="rId8"/>
+    <sheet name="aux_ods_estoque_vpc" sheetId="128" r:id="rId9"/>
+    <sheet name="stg_item_debito_estoque_antigo" sheetId="129" r:id="rId10"/>
+    <sheet name="aux_item_debito_estoque" sheetId="132" r:id="rId11"/>
+    <sheet name="stg_item_debito_estoque_novo" sheetId="133" r:id="rId12"/>
+    <sheet name="stg_valor_vpc_unitario" sheetId="134" r:id="rId13"/>
+    <sheet name="ods_contrato_vpc_rat_canc" sheetId="135" r:id="rId14"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="277">
   <si>
     <t>Campo</t>
   </si>
@@ -88,9 +99,6 @@
     <t>MIS_ODS</t>
   </si>
   <si>
-    <t>N:\Migracao\Gestao VPC\Gestao_VPC_LN\stg_contrato_vpc.dtsx</t>
-  </si>
-  <si>
     <t>[com].[stg_sige_contrato_vpc]</t>
   </si>
   <si>
@@ -217,9 +225,6 @@
     <t>[com].[stg_sige_nf_cancelada]</t>
   </si>
   <si>
-    <t>N:\Migracao\Gestao VPC\Gestao_VPC_LN\stg_extracao_faturamento.dtsx</t>
-  </si>
-  <si>
     <t>FAT_DATAHORA</t>
   </si>
   <si>
@@ -292,7 +297,568 @@
     <t xml:space="preserve"> com.ods_movimento_estoque_vpc</t>
   </si>
   <si>
-    <t>O Patrick pediu em 09/12/2014 para não mexer neste procedimento, pois esse cubo não está sendo atualizado</t>
+    <t>[com].[stg_movimento_estoque_vpc]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_movimento_estoque.dtsx</t>
+  </si>
+  <si>
+    <t>MOES_ID_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>MOES_ID_CIA</t>
+  </si>
+  <si>
+    <t>MOES_ID_FILIAL</t>
+  </si>
+  <si>
+    <t>MOES_ID_DEPOS</t>
+  </si>
+  <si>
+    <t>MOES_ID_ITEM</t>
+  </si>
+  <si>
+    <t>MOES_ID_REFDOC</t>
+  </si>
+  <si>
+    <t>MOES_DT_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>MOES_QT_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>MOES_VL_MOVIMENTO</t>
+  </si>
+  <si>
+    <t>MOES_ID_LOGICA</t>
+  </si>
+  <si>
+    <t>MOES_ID_MODULO</t>
+  </si>
+  <si>
+    <t>MOES_ID_DOCUMENTO</t>
+  </si>
+  <si>
+    <t>MOES_IN_SENTIDO</t>
+  </si>
+  <si>
+    <t>REFD_DT_EMISSAO</t>
+  </si>
+  <si>
+    <t>MODC_TP_PROPRIEDADE</t>
+  </si>
+  <si>
+    <t>NFCA_ID_NOTA</t>
+  </si>
+  <si>
+    <t>NFCA_SERIE</t>
+  </si>
+  <si>
+    <t>NFCA_ID_PED</t>
+  </si>
+  <si>
+    <t>NFCA_SITUACAO</t>
+  </si>
+  <si>
+    <t>MOES_DATAHORA</t>
+  </si>
+  <si>
+    <t>Identifica o Movimento através do seu código. Ex: 75734019, 75786596, 75743181, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Companhia através do seu código. Ex: 1, 2, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Filial através do seu código. Ex: 4, 10, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Depósito através do seu código. Ex: 1, etc</t>
+  </si>
+  <si>
+    <t>Identifica o item através do seu código. Ex: 3925908, 3471652, 1602487, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Documento de Referência através do seu número. Ex: 2021905, 1880517, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data do Movimento no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Quantidade Movimento</t>
+  </si>
+  <si>
+    <t>Valor Movimento</t>
+  </si>
+  <si>
+    <t>Identifica a Lógica através do seu código. Ex: 1, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Módulo através do seu código. Ex: ES, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Documento através do seu código. Ex: IV, MI, NF, etc</t>
+  </si>
+  <si>
+    <t>Identifica o movimento de entrada ou saída através do seu código. Ex: E, S, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data da Emissão no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Propriedade através do seu código. Ex: P, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Nota Fiscal através do seu número. Ex: 83307, 155749, 54419, etc</t>
+  </si>
+  <si>
+    <t>Identifica a série da Nota Fiscal através do seu número. Ex: 109, 108, 146, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Pedido através do seu número. Ex: 5724381701, 5714741602, 5773617801, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Situação da Nota Fiscal através do seu código. Ex: A, C, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data da carga no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>movimento_estoque</t>
+  </si>
+  <si>
+    <t>referencia_documental</t>
+  </si>
+  <si>
+    <t>modalidade_compra</t>
+  </si>
+  <si>
+    <t>item_geral</t>
+  </si>
+  <si>
+    <t>nota_fiscal_cabecalho</t>
+  </si>
+  <si>
+    <t>SIGE</t>
+  </si>
+  <si>
+    <t>[com].[ods_movimento_estoque_vpc]</t>
+  </si>
+  <si>
+    <t>nr_id_movimento</t>
+  </si>
+  <si>
+    <t>nr_id_cia</t>
+  </si>
+  <si>
+    <t>nr_id_filial</t>
+  </si>
+  <si>
+    <t>nr_id_deposito</t>
+  </si>
+  <si>
+    <t>nr_id_refdoc</t>
+  </si>
+  <si>
+    <t>dt_movimento</t>
+  </si>
+  <si>
+    <t>nr_qtde_movimento</t>
+  </si>
+  <si>
+    <t>vl_movimento</t>
+  </si>
+  <si>
+    <t>nr_id_logica</t>
+  </si>
+  <si>
+    <t>nr_id_modulo</t>
+  </si>
+  <si>
+    <t>nr_id_documento</t>
+  </si>
+  <si>
+    <t>ds_sentido</t>
+  </si>
+  <si>
+    <t>dt_refd_emissao</t>
+  </si>
+  <si>
+    <t>nr_id_nota</t>
+  </si>
+  <si>
+    <t>ds_nota_serie</t>
+  </si>
+  <si>
+    <t>nr_id_entrega</t>
+  </si>
+  <si>
+    <t>ds_situacao_nota</t>
+  </si>
+  <si>
+    <t>dt_movimento_datahora</t>
+  </si>
+  <si>
+    <t>Identifica o item sku através do seu código. Ex: 3925908, 3471652, 1602487, etc</t>
+  </si>
+  <si>
+    <t>Identifica o produto sku através do seu código. Ex: 3925908, 3471652, 1602487, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Entrega através do seu código. Ex: 2355467801, 2362288001, etc</t>
+  </si>
+  <si>
+    <t>com.stg_movimento_estoque_VPC</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque.dtsx</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_contrato_vpc.dtsx</t>
+  </si>
+  <si>
+    <t>VPC_CONTRATO</t>
+  </si>
+  <si>
+    <t>vpc_contrato_doc</t>
+  </si>
+  <si>
+    <t>documento</t>
+  </si>
+  <si>
+    <t>terceiro_corporativo</t>
+  </si>
+  <si>
+    <t>cobt_titulo</t>
+  </si>
+  <si>
+    <t>[com].[ods_sige_contrato_vpc]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc.dtsx</t>
+  </si>
+  <si>
+    <t>nr_id_contrato</t>
+  </si>
+  <si>
+    <t>ds_cod_contrato</t>
+  </si>
+  <si>
+    <t>nr_id_fornecedor</t>
+  </si>
+  <si>
+    <t>nr_id_departamento</t>
+  </si>
+  <si>
+    <t>nr_id_setor</t>
+  </si>
+  <si>
+    <t>nr_id_familia</t>
+  </si>
+  <si>
+    <t>vl_contrato</t>
+  </si>
+  <si>
+    <t>dt_contrato</t>
+  </si>
+  <si>
+    <t>ds_tp_pagto</t>
+  </si>
+  <si>
+    <t>yn_assinado</t>
+  </si>
+  <si>
+    <t>dt_assinado</t>
+  </si>
+  <si>
+    <t>ds_situacao</t>
+  </si>
+  <si>
+    <t>ds_documento</t>
+  </si>
+  <si>
+    <t>vl_saldo_carta</t>
+  </si>
+  <si>
+    <t>vl_consumo_carta</t>
+  </si>
+  <si>
+    <t>yn_consumido</t>
+  </si>
+  <si>
+    <t>nr_id_titulo</t>
+  </si>
+  <si>
+    <t>dt_data_hora</t>
+  </si>
+  <si>
+    <t>nr_tipo_rateio</t>
+  </si>
+  <si>
+    <t>ds_situacao_titulo</t>
+  </si>
+  <si>
+    <t>yn_cancelado</t>
+  </si>
+  <si>
+    <t>Identifica o Contrato VPC através do seu número interno. Ex: 8870, 8878, 8932</t>
+  </si>
+  <si>
+    <t>Identifica a data do contrato VPC no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica a data da assinatura do contrato no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o Título através do seu código. Ex: P1, P2, P3, V3, V6, V9, etc</t>
+  </si>
+  <si>
+    <t>Valor do Saldo da Carta</t>
+  </si>
+  <si>
+    <t>Valor do consumo da Carta</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica se o contrato foi consumido (0/1)</t>
+  </si>
+  <si>
+    <t>Identifica a data e hora da atualização do registro no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o Tipo de Rateio através do seu código. Ex: 1,2,3 etc</t>
+  </si>
+  <si>
+    <t>Identifica se o contrato foi cancelado (0/1)</t>
+  </si>
+  <si>
+    <t>com.stg_sige_contrato_vpc</t>
+  </si>
+  <si>
+    <t>[com].[aux_ods_sige_contrato_vpc]</t>
+  </si>
+  <si>
+    <t>com.aux_ods_sige_contrato_vpc</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_extracao_faturamento.dtsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota_fiscal_cabecalho </t>
+  </si>
+  <si>
+    <t>nota_fiscal_detalhe</t>
+  </si>
+  <si>
+    <t>nfca_bi</t>
+  </si>
+  <si>
+    <t>[com].[ods_estoque_vpc]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</t>
+  </si>
+  <si>
+    <t>nr_qt_fisico</t>
+  </si>
+  <si>
+    <t>yn_status</t>
+  </si>
+  <si>
+    <t>dt_estoque</t>
+  </si>
+  <si>
+    <t>vl_cmv_dia</t>
+  </si>
+  <si>
+    <t>vl_vpc</t>
+  </si>
+  <si>
+    <t>yn_estoque_zero</t>
+  </si>
+  <si>
+    <t>Quantidade Física do Item no estoque</t>
+  </si>
+  <si>
+    <t>Identifica o status do item no estoque através do seu código. Ex: 0, 1</t>
+  </si>
+  <si>
+    <t>Identifica a data do estoque no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Valor do Custo Médio de Venda do dia</t>
+  </si>
+  <si>
+    <t>Valor do VPC</t>
+  </si>
+  <si>
+    <t>Identifica se o item encontra-se com o estoque zerado (0 / 1)</t>
+  </si>
+  <si>
+    <t>com.ods_movimento_estoque_vpc</t>
+  </si>
+  <si>
+    <t>[com].[aux_ods_estoque_vpc]</t>
+  </si>
+  <si>
+    <t>com.ods_estoque_antigo_vpc</t>
+  </si>
+  <si>
+    <t>com.stg_sige_nf_cancelada</t>
+  </si>
+  <si>
+    <t>com.aux_ods_estoque_vpc</t>
+  </si>
+  <si>
+    <t>[com].[stg_item_debito_estoque_antigo]</t>
+  </si>
+  <si>
+    <t>qtde</t>
+  </si>
+  <si>
+    <t>Quantidade do Item no estoque</t>
+  </si>
+  <si>
+    <t>[com].[aux_item_debito_estoque]</t>
+  </si>
+  <si>
+    <t>qtde_antigo_novo</t>
+  </si>
+  <si>
+    <t>nr_qtde_antigo</t>
+  </si>
+  <si>
+    <t>qtde_retirar</t>
+  </si>
+  <si>
+    <t>qtde_debito_novo</t>
+  </si>
+  <si>
+    <t>dt_atualizacao</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Identifica o item SKU através do seu código. Ex: 2343727, 2335997, 3085401, etc</t>
+  </si>
+  <si>
+    <t>Identifica o produto SKU através do seu código. Ex: 1736552, 299027, etc</t>
+  </si>
+  <si>
+    <t>Quantidade atual do estoque antigo</t>
+  </si>
+  <si>
+    <t>Quantidade anterior do estoque antigo</t>
+  </si>
+  <si>
+    <t>Quantidade de itens a retirar</t>
+  </si>
+  <si>
+    <t>Quantidade de debito novo</t>
+  </si>
+  <si>
+    <t>Data da atualização no formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>Identifica o tipo através do seu código. Ex: 1, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.stg_item_debito_estoque_antigo </t>
+  </si>
+  <si>
+    <t>com.ods_estoque_vpc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.aux_item_debito_estoque </t>
+  </si>
+  <si>
+    <t>[com].[stg_item_debito_estoque_novo]</t>
+  </si>
+  <si>
+    <t>Quantidade do item em estoque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.stg_item_debito_estoque_novo </t>
+  </si>
+  <si>
+    <t>[com].[stg_valor_vpc_unitario]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx</t>
+  </si>
+  <si>
+    <t>qt_fisico</t>
+  </si>
+  <si>
+    <t>nr_depto</t>
+  </si>
+  <si>
+    <t>nr_setor</t>
+  </si>
+  <si>
+    <t>nr_familia</t>
+  </si>
+  <si>
+    <t>ds_supplier_cnpj</t>
+  </si>
+  <si>
+    <t>vl_total_estoque</t>
+  </si>
+  <si>
+    <t>percentual</t>
+  </si>
+  <si>
+    <t>vl_vpc_rateado</t>
+  </si>
+  <si>
+    <t>vl_vpc_rateado_unit</t>
+  </si>
+  <si>
+    <t>Identifica o fornecedor através do seu CNPJ sem qualquer separador</t>
+  </si>
+  <si>
+    <t>Valor Total do Estoque</t>
+  </si>
+  <si>
+    <t>Percentual de Estoque</t>
+  </si>
+  <si>
+    <t>Valor do VPC rateado</t>
+  </si>
+  <si>
+    <t>Valor do VPC rateado unitário</t>
+  </si>
+  <si>
+    <t>Identifica o Contrato através do seu número</t>
+  </si>
+  <si>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>com.ods_contrato_vpc</t>
+  </si>
+  <si>
+    <t>com.stg_valor_vpc_unitario</t>
+  </si>
+  <si>
+    <t>[com].[ods_contrato_vpc_rateio_cancelado]</t>
+  </si>
+  <si>
+    <t>nr_qt_fisico_estoque</t>
+  </si>
+  <si>
+    <t>vl_percentual</t>
+  </si>
+  <si>
+    <t>dt_rateio_contrato</t>
+  </si>
+  <si>
+    <t>Identifica a data do rateio do contrato</t>
   </si>
 </sst>
 </file>
@@ -351,7 +917,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -436,7 +1002,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -449,77 +1039,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -530,35 +1049,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -568,19 +1059,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -621,35 +1099,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -672,6 +1148,231 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -762,6 +1463,276 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1091,266 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +2105,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1398,7 +2113,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1406,7 +2121,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1426,88 +2141,196 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>82</v>
+      <c r="A22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1517,18 +2340,848 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E27"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
@@ -1536,7 +3189,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1545,208 +3198,326 @@
       <c r="D2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="14" t="str">
+        <f>stg_movimento_estoque_vpc!B9</f>
+        <v>[com].[stg_movimento_estoque_vpc]</v>
+      </c>
+      <c r="C3" s="19" t="str">
+        <f>stg_movimento_estoque_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D3" s="24" t="str">
+        <f>stg_movimento_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_movimento_estoque.dtsx</v>
+      </c>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="14" t="str">
+        <f>ods_movimento_estoque_vpc!B9</f>
+        <v>[com].[ods_movimento_estoque_vpc]</v>
+      </c>
+      <c r="C4" s="19" t="str">
+        <f>ods_movimento_estoque_vpc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D4" s="24" t="str">
+        <f>ods_movimento_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque.dtsx</v>
+      </c>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="14" t="str">
         <f>stg_sige_contrato_vpc!B9</f>
         <v>[com].[stg_sige_contrato_vpc]</v>
       </c>
-      <c r="C3" s="20" t="str">
+      <c r="C5" s="19" t="str">
         <f>stg_sige_contrato_vpc!B8</f>
         <v>MIS_STAGING</v>
       </c>
-      <c r="D3" s="15" t="str">
+      <c r="D5" s="24" t="str">
         <f>stg_sige_contrato_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC\Gestao_VPC_LN\stg_contrato_vpc.dtsx</v>
-      </c>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="25" t="str">
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_contrato_vpc.dtsx</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="14" t="str">
+        <f>ods_sige_contrato_vpc!B9</f>
+        <v>[com].[ods_sige_contrato_vpc]</v>
+      </c>
+      <c r="C6" s="19" t="str">
+        <f>ods_sige_contrato_vpc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D6" s="24" t="str">
+        <f>ods_sige_contrato_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc.dtsx</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="14" t="str">
+        <f>aux_ods_sige_contrato_vpc!B9</f>
+        <v>[com].[aux_ods_sige_contrato_vpc]</v>
+      </c>
+      <c r="C7" s="19" t="str">
+        <f>aux_ods_sige_contrato_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D7" s="24" t="str">
+        <f>aux_ods_sige_contrato_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc.dtsx</v>
+      </c>
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="14" t="str">
         <f>stg_sige_nf_cancelada!B9</f>
         <v>[com].[stg_sige_nf_cancelada]</v>
       </c>
-      <c r="C4" s="20" t="str">
+      <c r="C8" s="19" t="str">
         <f>stg_sige_nf_cancelada!B8</f>
         <v>MIS_STAGING</v>
       </c>
-      <c r="D4" s="15" t="str">
+      <c r="D8" s="24" t="str">
         <f>stg_sige_nf_cancelada!B10</f>
-        <v>N:\Migracao\Gestao VPC\Gestao_VPC_LN\stg_extracao_faturamento.dtsx</v>
-      </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="23" t="str">
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_extracao_faturamento.dtsx</v>
+      </c>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="14" t="str">
         <f>stg_faturamento_margin!B9</f>
         <v>[com].[stg_faturamento_margin]</v>
       </c>
-      <c r="C5" s="20" t="str">
+      <c r="C9" s="19" t="str">
         <f>stg_faturamento_margin!B8</f>
         <v>MIS_STAGING</v>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D9" s="24" t="str">
         <f>stg_faturamento_margin!B10</f>
-        <v>N:\Migracao\Gestao VPC\Gestao_VPC_LN\stg_extracao_faturamento.dtsx</v>
-      </c>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="23"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="23"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="23"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="15"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="22"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="22"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_extracao_faturamento.dtsx</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="14" t="str">
+        <f>ods_estoque_vpc!B9</f>
+        <v>[com].[ods_estoque_vpc]</v>
+      </c>
+      <c r="C10" s="19" t="str">
+        <f>ods_estoque_vpc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D10" s="24" t="str">
+        <f>ods_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="25" t="str">
+        <f>aux_ods_estoque_vpc!B9</f>
+        <v>[com].[aux_ods_estoque_vpc]</v>
+      </c>
+      <c r="C11" s="19" t="str">
+        <f>aux_ods_estoque_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D11" s="24" t="str">
+        <f>aux_ods_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="25" t="str">
+        <f>stg_item_debito_estoque_antigo!B9</f>
+        <v>[com].[stg_item_debito_estoque_antigo]</v>
+      </c>
+      <c r="C12" s="19" t="str">
+        <f>stg_item_debito_estoque_antigo!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D12" s="24" t="str">
+        <f>stg_item_debito_estoque_antigo!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="25" t="str">
+        <f>aux_item_debito_estoque!B9</f>
+        <v>[com].[aux_item_debito_estoque]</v>
+      </c>
+      <c r="C13" s="19" t="str">
+        <f>aux_item_debito_estoque!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D13" s="24" t="str">
+        <f>aux_item_debito_estoque!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="25" t="str">
+        <f>stg_item_debito_estoque_novo!B9</f>
+        <v>[com].[stg_item_debito_estoque_novo]</v>
+      </c>
+      <c r="C14" s="19" t="str">
+        <f>stg_item_debito_estoque_novo!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D14" s="24" t="str">
+        <f>stg_item_debito_estoque_novo!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="25" t="str">
+        <f>stg_valor_vpc_unitario!B9</f>
+        <v>[com].[stg_valor_vpc_unitario]</v>
+      </c>
+      <c r="C15" s="19" t="str">
+        <f>stg_valor_vpc_unitario!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D15" s="24" t="str">
+        <f>stg_valor_vpc_unitario!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="25" t="str">
+        <f>ods_contrato_vpc_rat_canc!B9</f>
+        <v>[com].[ods_contrato_vpc_rateio_cancelado]</v>
+      </c>
+      <c r="C16" s="19" t="str">
+        <f>ods_contrato_vpc_rat_canc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D16" s="24" t="str">
+        <f>ods_contrato_vpc_rat_canc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx</v>
+      </c>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="22"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="22"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="22"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="22"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="22"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="22"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="22"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="22"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="17"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="17"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="23"/>
     </row>
   </sheetData>
   <sortState ref="B3:E26">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" location="stg_sige_contrato_vpc!A1" display="stg_sige_contrato_vpc!A1"/>
-    <hyperlink ref="B4" location="stg_sige_nf_cancelada!A1" display="stg_sige_nf_cancelada!A1"/>
+    <hyperlink ref="B3" location="stg_movimento_estoque_vpc!A1" display="stg_movimento_estoque_vpc!A1"/>
+    <hyperlink ref="B4" location="ods_movimento_estoque_vpc!A1" display="ods_movimento_estoque_vpc!A1"/>
+    <hyperlink ref="B5" location="stg_sige_contrato_vpc!A1" display="stg_sige_contrato_vpc!A1"/>
+    <hyperlink ref="B6" location="ods_sige_contrato_vpc!A1" display="ods_sige_contrato_vpc!A1"/>
+    <hyperlink ref="B7" location="aux_ods_sige_contrato_vpc!A1" display="aux_ods_sige_contrato_vpc!A1"/>
+    <hyperlink ref="B8" location="stg_sige_nf_cancelada!A1" display="stg_sige_nf_cancelada!A1"/>
+    <hyperlink ref="B9" location="stg_faturamento_margin!A1" display="stg_faturamento_margin!A1"/>
+    <hyperlink ref="B10" location="ods_estoque_vpc!A1" display="ods_estoque_vpc!A1"/>
+    <hyperlink ref="B11" location="aux_ods_estoque_vpc!A1" display="aux_ods_estoque_vpc!A1"/>
+    <hyperlink ref="B12" location="stg_item_debito_estoque_antigo!A1" display="stg_item_debito_estoque_antigo!A1"/>
+    <hyperlink ref="B14" location="stg_item_debito_estoque_novo!A1" display="stg_item_debito_estoque_novo!A1"/>
+    <hyperlink ref="B13" location="aux_item_debito_estoque!A1" display="aux_item_debito_estoque!A1"/>
+    <hyperlink ref="B15" location="stg_valor_vpc_unitario!A1" display="stg_valor_vpc_unitario!A1"/>
+    <hyperlink ref="B16" location="ods_contrato_vpc_rat_canc!A1" display="ods_contrato_vpc_rat_canc!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1785,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1793,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1801,7 +3572,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1821,6 +3592,1316 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1830,7 +4911,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -1845,10 +4926,10 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -1863,18 +4944,394 @@
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>89</v>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Planilhas/Layouts/Gestao_VPC.xlsx
+++ b/Documentação/Planilhas/Layouts/Gestao_VPC.xlsx
@@ -4,31 +4,38 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
-    <sheet name="stg_movimento_estoque_vpc" sheetId="123" r:id="rId1"/>
-    <sheet name="ods_movimento_estoque_vpc" sheetId="124" r:id="rId2"/>
-    <sheet name="stg_sige_contrato_vpc" sheetId="113" r:id="rId3"/>
-    <sheet name="ods_sige_contrato_vpc" sheetId="125" r:id="rId4"/>
-    <sheet name="aux_ods_sige_contrato_vpc" sheetId="126" r:id="rId5"/>
-    <sheet name="stg_sige_nf_cancelada" sheetId="121" r:id="rId6"/>
-    <sheet name="stg_faturamento_margin" sheetId="122" r:id="rId7"/>
+    <sheet name="Resumo" sheetId="93" r:id="rId1"/>
+    <sheet name="aux_item_debito_estoque" sheetId="132" r:id="rId2"/>
+    <sheet name="aux_ods_estoque_vpc" sheetId="128" r:id="rId3"/>
+    <sheet name="aux_ods_sige_contrato_vpc" sheetId="126" r:id="rId4"/>
+    <sheet name="ods_consumo_vpc" sheetId="141" r:id="rId5"/>
+    <sheet name="ods_contrato_vpc_rat_canc" sheetId="135" r:id="rId6"/>
+    <sheet name="ods_contrato_vpc_rateio_sku" sheetId="137" r:id="rId7"/>
     <sheet name="ods_estoque_vpc" sheetId="127" r:id="rId8"/>
-    <sheet name="aux_ods_estoque_vpc" sheetId="128" r:id="rId9"/>
-    <sheet name="stg_item_debito_estoque_antigo" sheetId="129" r:id="rId10"/>
-    <sheet name="aux_item_debito_estoque" sheetId="132" r:id="rId11"/>
-    <sheet name="stg_item_debito_estoque_novo" sheetId="133" r:id="rId12"/>
-    <sheet name="stg_valor_vpc_unitario" sheetId="134" r:id="rId13"/>
-    <sheet name="ods_contrato_vpc_rat_canc" sheetId="135" r:id="rId14"/>
-    <sheet name="Resumo" sheetId="93" r:id="rId15"/>
+    <sheet name="ods_estoque_vpc_historico" sheetId="142" r:id="rId9"/>
+    <sheet name="ods_movimento_estoque_vpc" sheetId="124" r:id="rId10"/>
+    <sheet name="ods_sige_contrato_vpc" sheetId="125" r:id="rId11"/>
+    <sheet name="stg_fat_temp" sheetId="138" r:id="rId12"/>
+    <sheet name="stg_faturamento_margin" sheetId="122" r:id="rId13"/>
+    <sheet name="stg_item_debito_estoque_antigo" sheetId="129" r:id="rId14"/>
+    <sheet name="stg_item_debito_estoque_novo" sheetId="133" r:id="rId15"/>
+    <sheet name="stg_itens_consumo_vpc" sheetId="139" r:id="rId16"/>
+    <sheet name="stg_movimento_estoque_vpc" sheetId="123" r:id="rId17"/>
+    <sheet name="stg_rateio_vpc_item_estq_zero" sheetId="136" r:id="rId18"/>
+    <sheet name="stg_sige_contrato_vpc" sheetId="113" r:id="rId19"/>
+    <sheet name="stg_sige_nf_cancelada" sheetId="121" r:id="rId20"/>
+    <sheet name="stg_valor_vpc_unitario" sheetId="134" r:id="rId21"/>
+    <sheet name="stg_vpc_consumido" sheetId="140" r:id="rId22"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="319">
   <si>
     <t>Campo</t>
   </si>
@@ -859,6 +866,132 @@
   </si>
   <si>
     <t>Identifica a data do rateio do contrato</t>
+  </si>
+  <si>
+    <t>[com].[stg_rateio_vpc_item_estoque_zero]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio.dtsx</t>
+  </si>
+  <si>
+    <t>cnpj_fornecedor</t>
+  </si>
+  <si>
+    <t>Identifica o Fornecedor através do seu CNPJ sem qualquer separador.</t>
+  </si>
+  <si>
+    <t>com.stg_rateio_vpc_item_estoque_zero</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx e ods_contrato_vpc_rateio.dtsx</t>
+  </si>
+  <si>
+    <t>[com].[ods_contrato_vpc_rateio_sku]</t>
+  </si>
+  <si>
+    <t>[com].[stg_fat_temp]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_consumo_vpc.dtsx</t>
+  </si>
+  <si>
+    <t>qtde_saldo</t>
+  </si>
+  <si>
+    <t>Saldo em Quantidade dos produtos</t>
+  </si>
+  <si>
+    <t>com.stg_faturamento_margin</t>
+  </si>
+  <si>
+    <t>com.stg_fat_temp</t>
+  </si>
+  <si>
+    <t>[com].[stg_itens_consumo_vpc]</t>
+  </si>
+  <si>
+    <t>qtde_estoque_antigo</t>
+  </si>
+  <si>
+    <t>qtde_faturado</t>
+  </si>
+  <si>
+    <t>qtde_consumo_estoque_novo</t>
+  </si>
+  <si>
+    <t>caso</t>
+  </si>
+  <si>
+    <t>Quantidade do itens no estoque antigo</t>
+  </si>
+  <si>
+    <t>Quantidade Faturado</t>
+  </si>
+  <si>
+    <t>Quantidade do itens no estoque novo</t>
+  </si>
+  <si>
+    <t>Identifica o Caso através do seu código. Ex: 4, 5</t>
+  </si>
+  <si>
+    <t>[com].[stg_vpc_consumido]</t>
+  </si>
+  <si>
+    <t>vl_vpc_unit</t>
+  </si>
+  <si>
+    <t>vl_vpc_consumo</t>
+  </si>
+  <si>
+    <t>Quantidade de Consumo do Estoque Novo</t>
+  </si>
+  <si>
+    <t>Quantidade Física do Estoque</t>
+  </si>
+  <si>
+    <t>Valor do VPC unitário</t>
+  </si>
+  <si>
+    <t>Valor do VPC Consumo</t>
+  </si>
+  <si>
+    <t>com.stg_itens_consumo_vpc</t>
+  </si>
+  <si>
+    <t>[com].[ods_consumo_vpc]</t>
+  </si>
+  <si>
+    <t>nr_qtde</t>
+  </si>
+  <si>
+    <t>Quantidade de Consumo</t>
+  </si>
+  <si>
+    <t>com.stg_vpc_consumido</t>
+  </si>
+  <si>
+    <t>[com].[ods_estoque_vpc_historico]</t>
+  </si>
+  <si>
+    <t>nr_dt_base</t>
+  </si>
+  <si>
+    <t>Quantidade de Física no estoque</t>
+  </si>
+  <si>
+    <t>Identifica o Status através do seu código. Ex: 0, 1, etc</t>
+  </si>
+  <si>
+    <t>Valor do CMV dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor do VPC </t>
+  </si>
+  <si>
+    <t>Identifica se o estoque está zerado (0 / 1)</t>
+  </si>
+  <si>
+    <t>Identifica a data base no formato AAAAMMDD</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1050,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1061,6 +1194,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1109,7 +1253,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1126,6 +1269,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1417,7 +1563,322 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2063,6 +2524,418 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B2:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="95.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="14" t="str">
+        <f>aux_item_debito_estoque!B9</f>
+        <v>[com].[aux_item_debito_estoque]</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>aux_item_debito_estoque!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D3" s="23" t="str">
+        <f>aux_item_debito_estoque!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="14" t="str">
+        <f>aux_ods_estoque_vpc!B9</f>
+        <v>[com].[aux_ods_estoque_vpc]</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>aux_ods_estoque_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D4" s="23" t="str">
+        <f>aux_ods_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="14" t="str">
+        <f>aux_ods_sige_contrato_vpc!B9</f>
+        <v>[com].[aux_ods_sige_contrato_vpc]</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>aux_ods_sige_contrato_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f>aux_ods_sige_contrato_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc.dtsx</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="14" t="str">
+        <f>ods_consumo_vpc!B9</f>
+        <v>[com].[ods_consumo_vpc]</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>ods_consumo_vpc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D6" s="23" t="str">
+        <f>ods_consumo_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_consumo_vpc.dtsx</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="14" t="str">
+        <f>ods_contrato_vpc_rat_canc!B9</f>
+        <v>[com].[ods_contrato_vpc_rateio_cancelado]</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>ods_contrato_vpc_rat_canc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D7" s="23" t="str">
+        <f>ods_contrato_vpc_rat_canc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="14" t="str">
+        <f>ods_contrato_vpc_rateio_sku!B9</f>
+        <v>[com].[ods_contrato_vpc_rateio_sku]</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>ods_contrato_vpc_rateio_sku!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f>ods_contrato_vpc_rateio_sku!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio.dtsx</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="14" t="str">
+        <f>ods_estoque_vpc!B9</f>
+        <v>[com].[ods_estoque_vpc]</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>ods_estoque_vpc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f>ods_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="14" t="str">
+        <f>ods_estoque_vpc_historico!B9</f>
+        <v>[com].[ods_estoque_vpc_historico]</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>ods_estoque_vpc_historico!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f>ods_estoque_vpc_historico!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_consumo_vpc.dtsx</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="24" t="str">
+        <f>ods_movimento_estoque_vpc!B9</f>
+        <v>[com].[ods_movimento_estoque_vpc]</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>ods_movimento_estoque_vpc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f>ods_movimento_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque.dtsx</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="24" t="str">
+        <f>ods_sige_contrato_vpc!B9</f>
+        <v>[com].[ods_sige_contrato_vpc]</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>ods_sige_contrato_vpc!B8</f>
+        <v>MIS_ODS</v>
+      </c>
+      <c r="D12" s="23" t="str">
+        <f>ods_sige_contrato_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc.dtsx</v>
+      </c>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="24" t="str">
+        <f>stg_fat_temp!B9</f>
+        <v>[com].[stg_fat_temp]</v>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f>stg_fat_temp!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D13" s="23" t="str">
+        <f>stg_fat_temp!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_consumo_vpc.dtsx</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="24" t="str">
+        <f>stg_faturamento_margin!B9</f>
+        <v>[com].[stg_faturamento_margin]</v>
+      </c>
+      <c r="C14" s="18" t="str">
+        <f>stg_faturamento_margin!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D14" s="23" t="str">
+        <f>stg_faturamento_margin!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_extracao_faturamento.dtsx</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="24" t="str">
+        <f>stg_item_debito_estoque_antigo!B9</f>
+        <v>[com].[stg_item_debito_estoque_antigo]</v>
+      </c>
+      <c r="C15" s="18" t="str">
+        <f>stg_item_debito_estoque_antigo!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D15" s="23" t="str">
+        <f>stg_item_debito_estoque_antigo!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="24" t="str">
+        <f>stg_item_debito_estoque_novo!B9</f>
+        <v>[com].[stg_item_debito_estoque_novo]</v>
+      </c>
+      <c r="C16" s="18" t="str">
+        <f>stg_item_debito_estoque_novo!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D16" s="23" t="str">
+        <f>stg_item_debito_estoque_novo!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="24" t="str">
+        <f>stg_itens_consumo_vpc!B9</f>
+        <v>[com].[stg_itens_consumo_vpc]</v>
+      </c>
+      <c r="C17" s="18" t="str">
+        <f>stg_itens_consumo_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f>stg_itens_consumo_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_consumo_vpc.dtsx</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="24" t="str">
+        <f>stg_movimento_estoque_vpc!B9</f>
+        <v>[com].[stg_movimento_estoque_vpc]</v>
+      </c>
+      <c r="C18" s="18" t="str">
+        <f>stg_movimento_estoque_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f>stg_movimento_estoque_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_movimento_estoque.dtsx</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="24" t="str">
+        <f>stg_rateio_vpc_item_estq_zero!B9</f>
+        <v>[com].[stg_rateio_vpc_item_estoque_zero]</v>
+      </c>
+      <c r="C19" s="18" t="str">
+        <f>stg_rateio_vpc_item_estq_zero!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f>stg_rateio_vpc_item_estq_zero!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio.dtsx</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="2:5" ht="15">
+      <c r="B20" s="24" t="str">
+        <f>stg_sige_contrato_vpc!B9</f>
+        <v>[com].[stg_sige_contrato_vpc]</v>
+      </c>
+      <c r="C20" s="18" t="str">
+        <f>stg_sige_contrato_vpc!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D20" s="23" t="str">
+        <f>stg_sige_contrato_vpc!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_contrato_vpc.dtsx</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="2:5" ht="15">
+      <c r="B21" s="14" t="str">
+        <f>stg_sige_nf_cancelada!B9</f>
+        <v>[com].[stg_sige_nf_cancelada]</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>stg_sige_nf_cancelada!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D21" s="23" t="str">
+        <f>stg_sige_nf_cancelada!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_extracao_faturamento.dtsx</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="2:5" ht="15">
+      <c r="B22" s="24" t="str">
+        <f>stg_valor_vpc_unitario!B9</f>
+        <v>[com].[stg_valor_vpc_unitario]</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>stg_valor_vpc_unitario!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D22" s="23" t="str">
+        <f>stg_valor_vpc_unitario!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx e ods_contrato_vpc_rateio.dtsx</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="2:5" ht="15">
+      <c r="B23" s="24" t="str">
+        <f>stg_vpc_consumido!B9</f>
+        <v>[com].[stg_vpc_consumido]</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>stg_vpc_consumido!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D23" s="23" t="str">
+        <f>stg_vpc_consumido!B10</f>
+        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_consumo_vpc.dtsx</v>
+      </c>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="15"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="15"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="16"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="22"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:E23">
+    <sortCondition ref="B3"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B18" location="stg_movimento_estoque_vpc!A1" display="stg_movimento_estoque_vpc!A1"/>
+    <hyperlink ref="B11" location="ods_movimento_estoque_vpc!A1" display="ods_movimento_estoque_vpc!A1"/>
+    <hyperlink ref="B20" location="stg_sige_contrato_vpc!A1" display="stg_sige_contrato_vpc!A1"/>
+    <hyperlink ref="B12" location="ods_sige_contrato_vpc!A1" display="ods_sige_contrato_vpc!A1"/>
+    <hyperlink ref="B5" location="aux_ods_sige_contrato_vpc!A1" display="aux_ods_sige_contrato_vpc!A1"/>
+    <hyperlink ref="B21" location="stg_sige_nf_cancelada!A1" display="stg_sige_nf_cancelada!A1"/>
+    <hyperlink ref="B14" location="stg_faturamento_margin!A1" display="stg_faturamento_margin!A1"/>
+    <hyperlink ref="B9" location="ods_estoque_vpc!A1" display="ods_estoque_vpc!A1"/>
+    <hyperlink ref="B4" location="aux_ods_estoque_vpc!A1" display="aux_ods_estoque_vpc!A1"/>
+    <hyperlink ref="B15" location="stg_item_debito_estoque_antigo!A1" display="stg_item_debito_estoque_antigo!A1"/>
+    <hyperlink ref="B16" location="stg_item_debito_estoque_novo!A1" display="stg_item_debito_estoque_novo!A1"/>
+    <hyperlink ref="B3" location="aux_item_debito_estoque!A1" display="aux_item_debito_estoque!A1"/>
+    <hyperlink ref="B22" location="stg_valor_vpc_unitario!A1" display="stg_valor_vpc_unitario!A1"/>
+    <hyperlink ref="B7" location="ods_contrato_vpc_rat_canc!A1" display="ods_contrato_vpc_rat_canc!A1"/>
+    <hyperlink ref="B19" location="stg_rateio_vpc_item_estq_zero!A1" display="stg_rateio_vpc_item_estq_zero!A1"/>
+    <hyperlink ref="B8" location="ods_contrato_vpc_rateio_sku!A1" display="ods_contrato_vpc_rateio_sku!A1"/>
+    <hyperlink ref="B13" location="stg_fat_temp!A1" display="stg_fat_temp!A1"/>
+    <hyperlink ref="B17" location="stg_itens_consumo_vpc!A1" display="stg_itens_consumo_vpc!A1"/>
+    <hyperlink ref="B23" location="stg_vpc_consumido!A1" display="stg_vpc_consumido!A1"/>
+    <hyperlink ref="B6" location="ods_consumo_vpc!A1" display="ods_consumo_vpc!A1"/>
+    <hyperlink ref="B10" location="ods_estoque_vpc_historico!A1" display="ods_estoque_vpc_historico!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E33"/>
@@ -2105,7 +2978,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2113,7 +2986,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2121,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2141,185 +3014,161 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>132</v>
-      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="6" t="s">
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="11" t="s">
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="11" t="s">
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
+    <row r="29" spans="1:2" ht="30" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
+    <row r="30" spans="1:2" ht="30" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
+    <row r="31" spans="1:2" ht="30" customHeight="1">
       <c r="A31" s="6" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
       <c r="A32" s="6" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>129</v>
@@ -2327,7 +3176,7 @@
     </row>
     <row r="33" spans="1:2" ht="30" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>130</v>
@@ -2340,7 +3189,601 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1"/>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+    <row r="21" spans="1:5" ht="30" customHeight="1"/>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2468,7 +3911,1609 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1"/>
+    <row r="21" spans="1:5" ht="30" customHeight="1"/>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2521,7 +5566,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2529,7 +5574,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2549,100 +5594,90 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>246</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+        <v>302</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+        <v>303</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+        <v>220</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>243</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2652,12 +5687,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2705,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2736,13 +5771,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -2750,30 +5785,68 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2782,12 +5855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2835,7 +5908,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2843,7 +5916,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -2863,136 +5936,204 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>270</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
+    <row r="20" spans="1:2" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
+    <row r="21" spans="1:2" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
+    <row r="22" spans="1:2" ht="30" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>267</v>
+        <v>179</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30" customHeight="1">
+      <c r="A28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" customHeight="1">
+      <c r="A37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3002,1059 +6143,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15">
-      <c r="B3" s="14" t="str">
-        <f>stg_movimento_estoque_vpc!B9</f>
-        <v>[com].[stg_movimento_estoque_vpc]</v>
-      </c>
-      <c r="C3" s="19" t="str">
-        <f>stg_movimento_estoque_vpc!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D3" s="24" t="str">
-        <f>stg_movimento_estoque_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_movimento_estoque.dtsx</v>
-      </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="14" t="str">
-        <f>ods_movimento_estoque_vpc!B9</f>
-        <v>[com].[ods_movimento_estoque_vpc]</v>
-      </c>
-      <c r="C4" s="19" t="str">
-        <f>ods_movimento_estoque_vpc!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D4" s="24" t="str">
-        <f>ods_movimento_estoque_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque.dtsx</v>
-      </c>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="14" t="str">
-        <f>stg_sige_contrato_vpc!B9</f>
-        <v>[com].[stg_sige_contrato_vpc]</v>
-      </c>
-      <c r="C5" s="19" t="str">
-        <f>stg_sige_contrato_vpc!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D5" s="24" t="str">
-        <f>stg_sige_contrato_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_contrato_vpc.dtsx</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="14" t="str">
-        <f>ods_sige_contrato_vpc!B9</f>
-        <v>[com].[ods_sige_contrato_vpc]</v>
-      </c>
-      <c r="C6" s="19" t="str">
-        <f>ods_sige_contrato_vpc!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D6" s="24" t="str">
-        <f>ods_sige_contrato_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc.dtsx</v>
-      </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="14" t="str">
-        <f>aux_ods_sige_contrato_vpc!B9</f>
-        <v>[com].[aux_ods_sige_contrato_vpc]</v>
-      </c>
-      <c r="C7" s="19" t="str">
-        <f>aux_ods_sige_contrato_vpc!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D7" s="24" t="str">
-        <f>aux_ods_sige_contrato_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc.dtsx</v>
-      </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="14" t="str">
-        <f>stg_sige_nf_cancelada!B9</f>
-        <v>[com].[stg_sige_nf_cancelada]</v>
-      </c>
-      <c r="C8" s="19" t="str">
-        <f>stg_sige_nf_cancelada!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D8" s="24" t="str">
-        <f>stg_sige_nf_cancelada!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_extracao_faturamento.dtsx</v>
-      </c>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="14" t="str">
-        <f>stg_faturamento_margin!B9</f>
-        <v>[com].[stg_faturamento_margin]</v>
-      </c>
-      <c r="C9" s="19" t="str">
-        <f>stg_faturamento_margin!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D9" s="24" t="str">
-        <f>stg_faturamento_margin!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\stg_extracao_faturamento.dtsx</v>
-      </c>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="14" t="str">
-        <f>ods_estoque_vpc!B9</f>
-        <v>[com].[ods_estoque_vpc]</v>
-      </c>
-      <c r="C10" s="19" t="str">
-        <f>ods_estoque_vpc!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D10" s="24" t="str">
-        <f>ods_estoque_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
-      </c>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="2:5" ht="15">
-      <c r="B11" s="25" t="str">
-        <f>aux_ods_estoque_vpc!B9</f>
-        <v>[com].[aux_ods_estoque_vpc]</v>
-      </c>
-      <c r="C11" s="19" t="str">
-        <f>aux_ods_estoque_vpc!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D11" s="24" t="str">
-        <f>aux_ods_estoque_vpc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
-      </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="2:5" ht="15">
-      <c r="B12" s="25" t="str">
-        <f>stg_item_debito_estoque_antigo!B9</f>
-        <v>[com].[stg_item_debito_estoque_antigo]</v>
-      </c>
-      <c r="C12" s="19" t="str">
-        <f>stg_item_debito_estoque_antigo!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D12" s="24" t="str">
-        <f>stg_item_debito_estoque_antigo!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
-      </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="2:5" ht="15">
-      <c r="B13" s="25" t="str">
-        <f>aux_item_debito_estoque!B9</f>
-        <v>[com].[aux_item_debito_estoque]</v>
-      </c>
-      <c r="C13" s="19" t="str">
-        <f>aux_item_debito_estoque!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D13" s="24" t="str">
-        <f>aux_item_debito_estoque!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
-      </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="2:5" ht="15">
-      <c r="B14" s="25" t="str">
-        <f>stg_item_debito_estoque_novo!B9</f>
-        <v>[com].[stg_item_debito_estoque_novo]</v>
-      </c>
-      <c r="C14" s="19" t="str">
-        <f>stg_item_debito_estoque_novo!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D14" s="24" t="str">
-        <f>stg_item_debito_estoque_novo!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_movimento_estoque_novo.dtsx</v>
-      </c>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="2:5" ht="15">
-      <c r="B15" s="25" t="str">
-        <f>stg_valor_vpc_unitario!B9</f>
-        <v>[com].[stg_valor_vpc_unitario]</v>
-      </c>
-      <c r="C15" s="19" t="str">
-        <f>stg_valor_vpc_unitario!B8</f>
-        <v>MIS_STAGING</v>
-      </c>
-      <c r="D15" s="24" t="str">
-        <f>stg_valor_vpc_unitario!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx</v>
-      </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="2:5" ht="15">
-      <c r="B16" s="25" t="str">
-        <f>ods_contrato_vpc_rat_canc!B9</f>
-        <v>[com].[ods_contrato_vpc_rateio_cancelado]</v>
-      </c>
-      <c r="C16" s="19" t="str">
-        <f>ods_contrato_vpc_rat_canc!B8</f>
-        <v>MIS_ODS</v>
-      </c>
-      <c r="D16" s="24" t="str">
-        <f>ods_contrato_vpc_rat_canc!B10</f>
-        <v>N:\Migracao\Gestao VPC_Prod\Gestao VPC\ods_contrato_vpc_rateio_cancelado.dtsx</v>
-      </c>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="16"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="16"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="16"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="15"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="16"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="16"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="16"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="16"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="16"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="16"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="23"/>
-    </row>
-  </sheetData>
-  <sortState ref="B3:E26">
-    <sortCondition ref="B3"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="B3" location="stg_movimento_estoque_vpc!A1" display="stg_movimento_estoque_vpc!A1"/>
-    <hyperlink ref="B4" location="ods_movimento_estoque_vpc!A1" display="ods_movimento_estoque_vpc!A1"/>
-    <hyperlink ref="B5" location="stg_sige_contrato_vpc!A1" display="stg_sige_contrato_vpc!A1"/>
-    <hyperlink ref="B6" location="ods_sige_contrato_vpc!A1" display="ods_sige_contrato_vpc!A1"/>
-    <hyperlink ref="B7" location="aux_ods_sige_contrato_vpc!A1" display="aux_ods_sige_contrato_vpc!A1"/>
-    <hyperlink ref="B8" location="stg_sige_nf_cancelada!A1" display="stg_sige_nf_cancelada!A1"/>
-    <hyperlink ref="B9" location="stg_faturamento_margin!A1" display="stg_faturamento_margin!A1"/>
-    <hyperlink ref="B10" location="ods_estoque_vpc!A1" display="ods_estoque_vpc!A1"/>
-    <hyperlink ref="B11" location="aux_ods_estoque_vpc!A1" display="aux_ods_estoque_vpc!A1"/>
-    <hyperlink ref="B12" location="stg_item_debito_estoque_antigo!A1" display="stg_item_debito_estoque_antigo!A1"/>
-    <hyperlink ref="B14" location="stg_item_debito_estoque_novo!A1" display="stg_item_debito_estoque_novo!A1"/>
-    <hyperlink ref="B13" location="aux_item_debito_estoque!A1" display="aux_item_debito_estoque!A1"/>
-    <hyperlink ref="B15" location="stg_valor_vpc_unitario!A1" display="stg_valor_vpc_unitario!A1"/>
-    <hyperlink ref="B16" location="ods_contrato_vpc_rat_canc!A1" display="ods_contrato_vpc_rat_canc!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4102,7 +6196,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4110,7 +6204,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4130,218 +6224,74 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>203</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1"/>
+    <row r="22" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4349,16 +6299,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4396,7 +6344,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4404,7 +6352,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4412,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4435,201 +6383,81 @@
         <v>169</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>49</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>50</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="30" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="30" customHeight="1">
-      <c r="A27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" customHeight="1">
-      <c r="A28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="30" customHeight="1">
-      <c r="A29" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" customHeight="1">
-      <c r="A31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" customHeight="1">
-      <c r="A32" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" customHeight="1">
-      <c r="A34" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>63</v>
+      <c r="A22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4639,16 +6467,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4686,7 +6512,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4694,7 +6520,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4702,7 +6528,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4722,96 +6548,86 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>206</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>207</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>73</v>
+        <v>275</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4821,14 +6637,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4866,7 +6682,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4874,7 +6690,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4882,7 +6698,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -4911,7 +6727,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -4921,42 +6737,126 @@
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
+        <v>216</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>87</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="D23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4965,16 +6865,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -5020,7 +6918,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5028,7 +6926,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -5051,13 +6949,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -5065,28 +6963,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>224</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>210</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>226</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
@@ -5095,25 +6985,15 @@
       <c r="B17" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>211</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
@@ -5123,25 +7003,13 @@
       <c r="B19" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>213</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
@@ -5149,189 +7017,23 @@
         <v>214</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+        <v>316</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1"/>
-    <row r="2" spans="1:5" ht="18" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18" customHeight="1"/>
-    <row r="4" spans="1:5" ht="18" customHeight="1"/>
-    <row r="5" spans="1:5" ht="18" customHeight="1"/>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" ht="30" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>221</v>
+      <c r="B22" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
